--- a/UniversalPhysics/作业题解析（下）/大物编写统计.xlsx
+++ b/UniversalPhysics/作业题解析（下）/大物编写统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qyxf\Universal-Physics\UniversalPhysics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qyxf\Universal-Physics\UniversalPhysics\作业题解析（下）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB53FBF-AFC9-4466-B9FB-10DB67B22CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9687DB-293E-4D77-A6FB-2BFC0121652A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -536,9 +536,7 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -550,9 +548,7 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -575,9 +571,10 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -586,9 +583,10 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
